--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_30_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_30_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92576.12007245868</v>
+        <v>17075737.200582</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92576.12007245868</v>
+        <v>17075737.200582</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41189.34775079304</v>
+        <v>5231906.246145594</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41189.34775079304</v>
+        <v>5231906.246145594</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418477843.761208</v>
+        <v>52862628.06471641</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11667.13649435629</v>
+        <v>1220460.341350836</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22223.52458716681</v>
+        <v>2270530.628208214</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32779.9126799773</v>
+        <v>3320600.915065594</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43512.19170006824</v>
+        <v>4337607.213431298</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54090.87466548312</v>
+        <v>5392290.797474768</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64643.69443464625</v>
+        <v>6443534.297823664</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75176.31654520708</v>
+        <v>7539791.374706048</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85737.29315819292</v>
+        <v>8629642.612300418</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96759.24656209984</v>
+        <v>9594871.029684171</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>107193.9477314366</v>
+        <v>10716277.23640918</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>117387.6264798306</v>
+        <v>11844430.40328027</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>127546.8395515221</v>
+        <v>12968930.2084209</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>137705.3516088087</v>
+        <v>14093647.85919621</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>148893.5201720553</v>
+        <v>15023962.19519951</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161893.53549027</v>
+        <v>15646621.04261392</v>
       </c>
     </row>
   </sheetData>
@@ -27040,7 +27040,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>321</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27150,10 +27150,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
